--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Il17c-Il17ra.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Il17c-Il17ra.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.198357333333333</v>
+        <v>0.07443033333333333</v>
       </c>
       <c r="H2">
-        <v>3.595072</v>
+        <v>0.223291</v>
       </c>
       <c r="I2">
-        <v>0.5044631819412814</v>
+        <v>0.07586947613633815</v>
       </c>
       <c r="J2">
-        <v>0.5044631819412814</v>
+        <v>0.07586947613633817</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.816288</v>
+        <v>0.1801153333333333</v>
       </c>
       <c r="N2">
-        <v>56.448864</v>
+        <v>0.540346</v>
       </c>
       <c r="O2">
-        <v>0.6719831983915505</v>
+        <v>0.01663333613045927</v>
       </c>
       <c r="P2">
-        <v>0.6719831983915505</v>
+        <v>0.01663333613045927</v>
       </c>
       <c r="Q2">
-        <v>22.548636710912</v>
+        <v>0.01340604429844444</v>
       </c>
       <c r="R2">
-        <v>202.937730398208</v>
+        <v>0.120654398686</v>
       </c>
       <c r="S2">
-        <v>0.3389907824716809</v>
+        <v>0.001261962498617571</v>
       </c>
       <c r="T2">
-        <v>0.3389907824716809</v>
+        <v>0.001261962498617571</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.198357333333333</v>
+        <v>0.07443033333333333</v>
       </c>
       <c r="H3">
-        <v>3.595072</v>
+        <v>0.223291</v>
       </c>
       <c r="I3">
-        <v>0.5044631819412814</v>
+        <v>0.07586947613633815</v>
       </c>
       <c r="J3">
-        <v>0.5044631819412814</v>
+        <v>0.07586947613633817</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>13.224605</v>
       </c>
       <c r="O3">
-        <v>0.1574294279042514</v>
+        <v>0.407089716880577</v>
       </c>
       <c r="P3">
-        <v>0.1574294279042514</v>
+        <v>0.407089716880577</v>
       </c>
       <c r="Q3">
-        <v>5.282600794062222</v>
+        <v>0.3281039194505556</v>
       </c>
       <c r="R3">
-        <v>47.54340714656</v>
+        <v>2.952935275055</v>
       </c>
       <c r="S3">
-        <v>0.0794173501317742</v>
+        <v>0.0308856835602196</v>
       </c>
       <c r="T3">
-        <v>0.0794173501317742</v>
+        <v>0.0308856835602196</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.198357333333333</v>
+        <v>0.07443033333333333</v>
       </c>
       <c r="H4">
-        <v>3.595072</v>
+        <v>0.223291</v>
       </c>
       <c r="I4">
-        <v>0.5044631819412814</v>
+        <v>0.07586947613633815</v>
       </c>
       <c r="J4">
-        <v>0.5044631819412814</v>
+        <v>0.07586947613633817</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.776639</v>
+        <v>6.240258333333333</v>
       </c>
       <c r="N4">
-        <v>14.329917</v>
+        <v>18.720775</v>
       </c>
       <c r="O4">
-        <v>0.1705873737041981</v>
+        <v>0.5762769469889637</v>
       </c>
       <c r="P4">
-        <v>0.1705873737041981</v>
+        <v>0.5762769469889637</v>
       </c>
       <c r="Q4">
-        <v>5.724120374336001</v>
+        <v>0.4644645078361111</v>
       </c>
       <c r="R4">
-        <v>51.51708336902401</v>
+        <v>4.180180570525001</v>
       </c>
       <c r="S4">
-        <v>0.08605504933782623</v>
+        <v>0.04372183007750099</v>
       </c>
       <c r="T4">
-        <v>0.08605504933782623</v>
+        <v>0.04372183007750099</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>2.207784</v>
       </c>
       <c r="I5">
-        <v>0.3097978960307471</v>
+        <v>0.7501574873245639</v>
       </c>
       <c r="J5">
-        <v>0.309797896030747</v>
+        <v>0.7501574873245638</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.816288</v>
+        <v>0.1801153333333333</v>
       </c>
       <c r="N5">
-        <v>56.448864</v>
+        <v>0.540346</v>
       </c>
       <c r="O5">
-        <v>0.6719831983915505</v>
+        <v>0.01663333613045927</v>
       </c>
       <c r="P5">
-        <v>0.6719831983915505</v>
+        <v>0.01663333613045927</v>
       </c>
       <c r="Q5">
-        <v>13.847433195264</v>
+        <v>0.1325519170293333</v>
       </c>
       <c r="R5">
-        <v>124.626898757376</v>
+        <v>1.192967253264</v>
       </c>
       <c r="S5">
-        <v>0.2081789810297145</v>
+        <v>0.01247762163745021</v>
       </c>
       <c r="T5">
-        <v>0.2081789810297144</v>
+        <v>0.01247762163745021</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>2.207784</v>
       </c>
       <c r="I6">
-        <v>0.3097978960307471</v>
+        <v>0.7501574873245639</v>
       </c>
       <c r="J6">
-        <v>0.309797896030747</v>
+        <v>0.7501574873245638</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>13.224605</v>
       </c>
       <c r="O6">
-        <v>0.1574294279042514</v>
+        <v>0.407089716880577</v>
       </c>
       <c r="P6">
-        <v>0.1574294279042514</v>
+        <v>0.407089716880577</v>
       </c>
       <c r="Q6">
         <v>3.244119036146667</v>
@@ -818,10 +818,10 @@
         <v>29.19707132532</v>
       </c>
       <c r="S6">
-        <v>0.04877130553806126</v>
+        <v>0.3053813991308018</v>
       </c>
       <c r="T6">
-        <v>0.04877130553806126</v>
+        <v>0.3053813991308018</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>2.207784</v>
       </c>
       <c r="I7">
-        <v>0.3097978960307471</v>
+        <v>0.7501574873245639</v>
       </c>
       <c r="J7">
-        <v>0.309797896030747</v>
+        <v>0.7501574873245638</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.776639</v>
+        <v>6.240258333333333</v>
       </c>
       <c r="N7">
-        <v>14.329917</v>
+        <v>18.720775</v>
       </c>
       <c r="O7">
-        <v>0.1705873737041981</v>
+        <v>0.5762769469889637</v>
       </c>
       <c r="P7">
-        <v>0.1705873737041981</v>
+        <v>0.5762769469889637</v>
       </c>
       <c r="Q7">
-        <v>3.515262385992</v>
+        <v>4.592380834733333</v>
       </c>
       <c r="R7">
-        <v>31.637361473928</v>
+        <v>41.33142751259999</v>
       </c>
       <c r="S7">
-        <v>0.05284760946297135</v>
+        <v>0.4322984665563119</v>
       </c>
       <c r="T7">
-        <v>0.05284760946297135</v>
+        <v>0.4322984665563118</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.4412246666666667</v>
+        <v>0.170673</v>
       </c>
       <c r="H8">
-        <v>1.323674</v>
+        <v>0.512019</v>
       </c>
       <c r="I8">
-        <v>0.1857389220279715</v>
+        <v>0.173973036539098</v>
       </c>
       <c r="J8">
-        <v>0.1857389220279715</v>
+        <v>0.173973036539098</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>18.816288</v>
+        <v>0.1801153333333333</v>
       </c>
       <c r="N8">
-        <v>56.448864</v>
+        <v>0.540346</v>
       </c>
       <c r="O8">
-        <v>0.6719831983915505</v>
+        <v>0.01663333613045927</v>
       </c>
       <c r="P8">
-        <v>0.6719831983915505</v>
+        <v>0.01663333613045927</v>
       </c>
       <c r="Q8">
-        <v>8.302210400704</v>
+        <v>0.030740824286</v>
       </c>
       <c r="R8">
-        <v>74.719893606336</v>
+        <v>0.276667418574</v>
       </c>
       <c r="S8">
-        <v>0.1248134348901551</v>
+        <v>0.002893751994391489</v>
       </c>
       <c r="T8">
-        <v>0.1248134348901551</v>
+        <v>0.002893751994391489</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.4412246666666667</v>
+        <v>0.170673</v>
       </c>
       <c r="H9">
-        <v>1.323674</v>
+        <v>0.512019</v>
       </c>
       <c r="I9">
-        <v>0.1857389220279715</v>
+        <v>0.173973036539098</v>
       </c>
       <c r="J9">
-        <v>0.1857389220279715</v>
+        <v>0.173973036539098</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>13.224605</v>
       </c>
       <c r="O9">
-        <v>0.1574294279042514</v>
+        <v>0.407089716880577</v>
       </c>
       <c r="P9">
-        <v>0.1574294279042514</v>
+        <v>0.407089716880577</v>
       </c>
       <c r="Q9">
-        <v>1.945007310974444</v>
+        <v>0.752361003055</v>
       </c>
       <c r="R9">
-        <v>17.50506579877</v>
+        <v>6.771249027495</v>
       </c>
       <c r="S9">
-        <v>0.02924077223441592</v>
+        <v>0.07082263418955569</v>
       </c>
       <c r="T9">
-        <v>0.02924077223441591</v>
+        <v>0.07082263418955569</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.4412246666666667</v>
+        <v>0.170673</v>
       </c>
       <c r="H10">
-        <v>1.323674</v>
+        <v>0.512019</v>
       </c>
       <c r="I10">
-        <v>0.1857389220279715</v>
+        <v>0.173973036539098</v>
       </c>
       <c r="J10">
-        <v>0.1857389220279715</v>
+        <v>0.173973036539098</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.776639</v>
+        <v>6.240258333333333</v>
       </c>
       <c r="N10">
-        <v>14.329917</v>
+        <v>18.720775</v>
       </c>
       <c r="O10">
-        <v>0.1705873737041981</v>
+        <v>0.5762769469889637</v>
       </c>
       <c r="P10">
-        <v>0.1705873737041981</v>
+        <v>0.5762769469889637</v>
       </c>
       <c r="Q10">
-        <v>2.107570950562</v>
+        <v>1.065043610525</v>
       </c>
       <c r="R10">
-        <v>18.968138555058</v>
+        <v>9.585392494724999</v>
       </c>
       <c r="S10">
-        <v>0.03168471490340049</v>
+        <v>0.1002566503551508</v>
       </c>
       <c r="T10">
-        <v>0.03168471490340048</v>
+        <v>0.1002566503551508</v>
       </c>
     </row>
   </sheetData>
